--- a/biology/Botanique/Caricaceae/Caricaceae.xlsx
+++ b/biology/Botanique/Caricaceae/Caricaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Caricacées regroupe des plantes dicotylédones ; elle comprend 35 espèces réparties en 2 à 6 genres.
 Ce sont de petits arbres à l'aspect de palmiers, des arbustes ou des plantes herbacées, des régions subtropicales à tropicales, originaires d'Amérique et d'Afrique de l'Ouest.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Carica, qui historiquement désigne une « espère de figue sèche venant de Carie »[1] région du Sud-Ouest de l'actuelle Turquie. Il est possible que ce nom vienne de la confusion de localisation entre Carica papaya  (Papayer), arbre des régions tropicales, et Ficus carica (Moraceae) communément appelé « figuier commun » ou, plus rarement, « figuier de Carie », arbre qui, lui, est effectivement originaire d'Asie mineure.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Carica, qui historiquement désigne une « espère de figue sèche venant de Carie » région du Sud-Ouest de l'actuelle Turquie. Il est possible que ce nom vienne de la confusion de localisation entre Carica papaya  (Papayer), arbre des régions tropicales, et Ficus carica (Moraceae) communément appelé « figuier commun » ou, plus rarement, « figuier de Carie », arbre qui, lui, est effectivement originaire d'Asie mineure.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Brassicales.
 </t>
@@ -575,21 +591,23 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015)[2] et DELTA Angio           (4 août 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015) et DELTA Angio           (4 août 2015) :
 Carica L.
 Cylicomorpha Urb.
 Jacaratia A.DC.
 Jarilla (en) Rusby
-Selon NCBI  (4 août 2015)[4] :
+Selon NCBI  (4 août 2015) :
 Carica
 Cylicomorpha
 Horovitzia (en)
 Jacaratia
 Jarilla
 Vasconcellea (en)
-Selon ITIS      (4 août 2015)[5] :
+Selon ITIS      (4 août 2015) :
 Carica L.
 Jarilla Rusby
 Vasconcellea
@@ -627,9 +645,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 juin 2010) :
 genre Carica
 Carica papaya
 genre Cylicomorpha
